--- a/data/invoices.xlsx
+++ b/data/invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,45 +473,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INV-5678</t>
+          <t>APN-22223</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>01/26/2026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>invoice 2.png</t>
+          <t>invoice 3.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-02-03 19:09:00</t>
+          <t>2026-02-03 19:18:04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Incomplete</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Total Amount</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APN-22223</t>
+          <t>HLO-55223</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/26/2026</t>
+          <t>01/12/2026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,12 +525,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>invoice 3.png</t>
+          <t>invoice 4.png</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-02-03 19:09:00</t>
+          <t>2026-02-03 19:18:05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -543,27 +547,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HLO-55223</t>
+          <t>INV-10023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/12/2026</t>
+          <t>01/15/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>invoice 4.png</t>
+          <t>invoice.png</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2026-02-03 19:09:01</t>
+          <t>2026-02-03 19:18:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -572,43 +576,6 @@
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>INV-10023</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>01/15/2025</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>invoice.png</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2026-02-03 19:09:02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>None</t>
         </is>
